--- a/data/SlopeSeaOto2016_FullRead_3.xlsx
+++ b/data/SlopeSeaOto2016_FullRead_3.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10713"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10810"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chrissy/JointProgram/SlopeSea/2016_data/SlopeSeaBluefinTuna/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CF12CA60-B1BE-7947-86C1-7EA7ED54D8C5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E94BDDB-ABFC-8841-A13A-A2F9EAE77455}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="480" yWindow="960" windowWidth="25040" windowHeight="14500" xr2:uid="{73122B7C-D61D-2349-A5E7-F36F68F1814D}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
   <si>
     <t>n</t>
   </si>
@@ -133,6 +133,9 @@
   </si>
   <si>
     <t>HB1603Stn50-2N3-F16-O1.tif</t>
+  </si>
+  <si>
+    <t>HB1603Stn53-6B3I-F1-O1.tif</t>
   </si>
 </sst>
 </file>
@@ -484,10 +487,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C2A2527-5085-754C-9DFF-39269F7881F3}">
-  <dimension ref="A1:AB9"/>
+  <dimension ref="A1:AB10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:AB10"/>
+      <selection activeCell="A10" sqref="A10:AB10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -816,6 +819,32 @@
         <v>3</v>
       </c>
     </row>
+    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>36</v>
+      </c>
+      <c r="C10">
+        <v>19.259499999999999</v>
+      </c>
+      <c r="D10">
+        <v>9.7286999999999999</v>
+      </c>
+      <c r="E10">
+        <v>11.2713</v>
+      </c>
+      <c r="F10">
+        <v>13.2883</v>
+      </c>
+      <c r="G10">
+        <v>15.858599999999999</v>
+      </c>
+      <c r="AB10">
+        <v>4</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
